--- a/templates/PORT/country_data.xlsx
+++ b/templates/PORT/country_data.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
-  <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr updateLinks="never" codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfernandoquezada/Documents/GitHub/omrat/template/SPA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icedu\Documents\repos\mr-risk-assessment\templates\PORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A19CEE9-D290-A84C-A865-FBE6391B7508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD35632-1C6F-4C62-8816-BDB3882AF2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19540" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="773" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-General" sheetId="1" r:id="rId1"/>
+    <sheet name="1-Geral" sheetId="1" r:id="rId1"/>
     <sheet name="2-Área pop " sheetId="14" r:id="rId2"/>
-    <sheet name="3-Inmunidad poblacional" sheetId="15" r:id="rId3"/>
-    <sheet name="4-Desempeño del programa " sheetId="16" r:id="rId4"/>
-    <sheet name="5-Grupos vulnerables" sheetId="4" r:id="rId5"/>
-    <sheet name="6-Datos caso a caso" sheetId="26" r:id="rId6"/>
-    <sheet name="7-Respuesta rápida" sheetId="25" r:id="rId7"/>
+    <sheet name="3-Imunidade populacional" sheetId="15" r:id="rId3"/>
+    <sheet name="4-Desempenho do programa " sheetId="16" r:id="rId4"/>
+    <sheet name="5-Grupos vulneráveis" sheetId="4" r:id="rId5"/>
+    <sheet name="6-Dados caso a caso" sheetId="26" r:id="rId6"/>
+    <sheet name="7-Resposta rápida" sheetId="25" r:id="rId7"/>
     <sheet name="_ListValues" sheetId="22" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
@@ -28,10 +28,11 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2-Área pop '!$C$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5-Grupos vulnerables'!$C$1:$L$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2-Área pop '!$C$1:$F$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3-Imunidade populacional'!$A$1:$O$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5-Grupos vulneráveis'!$C$1:$L$10</definedName>
     <definedName name="Admin1_Median_Density">#REF!</definedName>
-    <definedName name="Assessment_year">'1-General'!#REF!</definedName>
+    <definedName name="Assessment_year">'1-Geral'!#REF!</definedName>
     <definedName name="Density_Threshold_1" localSheetId="7">#REF!</definedName>
     <definedName name="Density_Threshold_1">#REF!</definedName>
     <definedName name="Density_Threshold_2" localSheetId="7">#REF!</definedName>
@@ -103,7 +104,7 @@
     <definedName name="tbl_step1_global_ref_data">#REF!</definedName>
     <definedName name="Total_Admin2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="1" shapeId="0" xr:uid="{DF7FAEEB-A635-484C-8B99-9BC9EF6E70AD}">
+    <comment ref="J11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="S11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -231,15 +232,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Case ID</t>
   </si>
   <si>
     <t>Admin1</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Final Classification</t>
@@ -417,9 +415,6 @@
     <t>Admin2 geo codes</t>
   </si>
   <si>
-    <t>Datos generales</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -429,12 +424,6 @@
     <t>Municipio</t>
   </si>
   <si>
-    <t>Población total</t>
-  </si>
-  <si>
-    <t>Area (km2) del municipio</t>
-  </si>
-  <si>
     <t>Sarampion</t>
   </si>
   <si>
@@ -459,143 +448,134 @@
     <t>Si</t>
   </si>
   <si>
-    <t>Nombre del país o del nivel subnacional</t>
-  </si>
-  <si>
-    <t>Año de la evaluación del riesgo</t>
-  </si>
-  <si>
-    <t>¿Tiene el país un equipo nacional de respuesta rápida capacitado?</t>
-  </si>
-  <si>
-    <t>¿Año de la última campaña (AAAA)?</t>
-  </si>
-  <si>
-    <t>Edad de administración de la SRP1 (en meses)</t>
-  </si>
-  <si>
-    <t>Edad de administración de la SRP2 (en meses)</t>
-  </si>
-  <si>
-    <t>Número de dosis de Penta 1</t>
-  </si>
-  <si>
-    <t>Número de dosis de SRP1</t>
-  </si>
-  <si>
-    <t>Número de dosis de SRP2</t>
-  </si>
-  <si>
-    <t>Fórmula tasa de deserción
- No. de dosis (SRP1 – SRP2)
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Valores predefinidos</t>
+  </si>
+  <si>
+    <t>DD/MM/AAAA</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Geocódigo Admin1</t>
+  </si>
+  <si>
+    <t>Geocódigo Admin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobertura de SRP1 por municipio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobertura de SRP2 por municipio </t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Dados gerais</t>
+  </si>
+  <si>
+    <t>Nome do país ou nível subnacional</t>
+  </si>
+  <si>
+    <t>Ano de avaliação de risco</t>
+  </si>
+  <si>
+    <t>Surto</t>
+  </si>
+  <si>
+    <t>Nível subnacional</t>
+  </si>
+  <si>
+    <t>População total</t>
+  </si>
+  <si>
+    <t>Área (km2) do município</t>
+  </si>
+  <si>
+    <t>Número de doses de Penta 1</t>
+  </si>
+  <si>
+    <t>Número de doses de SRP 1</t>
+  </si>
+  <si>
+    <t>Número de doses de SRP 2</t>
+  </si>
+  <si>
+    <t>Fórmula da taxa de abandono
+  Nº de doses (SRP1 – SRP2)
 ________________________
-   No. de dosis SRP1</t>
-  </si>
-  <si>
-    <t>Fórmula tasa de deserción
- No. de dosis (Penta1 – SRP1)
+   No. de doses SRP1</t>
+  </si>
+  <si>
+    <t>Fórmula da taxa de abandono
+  Nº de doses (Penta1 – SRP1)
 ________________________
    No. de dosis Penta1</t>
   </si>
   <si>
-    <t>Presencia de población migrante, desplazados internos, barrios marginales o comunidades indígenas (Si/No)</t>
-  </si>
-  <si>
-    <t>Presencia de gran afluencia de turistas o de destinos ecoturistas (Si/No)</t>
-  </si>
-  <si>
-    <t>Presencia de problemas de seguridad y protección que dificulten la vacunación de rutina o la investigación epidemiológica de campo (p. ej., tráfico de drogas) (Si/No)</t>
-  </si>
-  <si>
-    <t>Presencia de calamidades o desastres (Si/No)</t>
-  </si>
-  <si>
-    <t>Acceso limitado a los servicios de salud debido a problemas de la topografía o transporte (Si/No)</t>
-  </si>
-  <si>
-    <t>Presencia de comunidades fronterizas (Si/No)</t>
-  </si>
-  <si>
-    <t>Presencia de áreas con alto tráfico urbano, carreteras importantes (en los países y entre ellos) o zonas limítrofes con grandes urbes (Si/No)</t>
-  </si>
-  <si>
-    <t>Presencia de áreas con eventos masivos  (p. ej., comercio, ferias, mercados, eventos deportivos, eventos religiosos) (Si/No)</t>
-  </si>
-  <si>
-    <t>Presencia de un equipo subnacional de respuesta rápida capacitado (Si/No)</t>
-  </si>
-  <si>
-    <t>El número y el orden de las columnas de origen deben coincidir con las columnas de destino.</t>
-  </si>
-  <si>
-    <t>Texto</t>
-  </si>
-  <si>
-    <t>Texto o número</t>
-  </si>
-  <si>
-    <t>Valores predefinidos</t>
-  </si>
-  <si>
-    <t>DD/MM/AAAA</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Año (AAAA)</t>
-  </si>
-  <si>
-    <t>Clasificación final</t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Lugar de residencia</t>
-  </si>
-  <si>
-    <t>Presencia de fiebre</t>
-  </si>
-  <si>
-    <t>Fecha de inicio de exantema</t>
-  </si>
-  <si>
-    <t>Estado de vacunación</t>
-  </si>
-  <si>
-    <t>Número de dosis</t>
-  </si>
-  <si>
-    <t>Fecha de notificación</t>
-  </si>
-  <si>
-    <t>Fecha de investigación</t>
-  </si>
-  <si>
-    <t>Fecha de obtención de muestra</t>
-  </si>
-  <si>
-    <t>Fecha de recepción en laboratorio</t>
-  </si>
-  <si>
-    <t>Fecha de la última vacunación</t>
-  </si>
-  <si>
-    <t>Antecedente de viaje</t>
-  </si>
-  <si>
-    <t>Llene la tabla de datos debajo de acuerdo con los siguientes requisitos:</t>
-  </si>
-  <si>
-    <t>Los tipos de fuentes para los datos deben ser los indicados.</t>
+    <t>Presença de população migrante, pessoas deslocadas internamente, bairros marginais ou comunidades indígenas (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Presença de grande fluxo de turistas ou destinos de ecoturismo (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Presença de calamidades ou desastres (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Acesso limitado aos serviços de saúde devido a problemas topográficos ou de transporte (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Presença de comunidades fronteiriças (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Presença de áreas com alto tráfego urbano, estradas importantes (nos países e entre eles) ou áreas limítrofes com grandes cidades (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Presença de áreas com eventos de grande porte (ex. comércio, feiras, mercados, eventos esportivos, eventos religiosos) (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Presença de uma equipe subnacional de resposta rápida treinada (Sim/Não)</t>
+  </si>
+  <si>
+    <t>O país possui uma equipe nacional de resposta rápida treinada?</t>
+  </si>
+  <si>
+    <t>Ano da última campanha (AAAA)?</t>
+  </si>
+  <si>
+    <t>Idade da administração de SRP1 (em meses)</t>
+  </si>
+  <si>
+    <t>Idade da administração de SRP2 (em meses)</t>
+  </si>
+  <si>
+    <t>Presencia de problemas de segurança e proteção que dificulten a vacinação de rotina ou  a investigação epidemiológica de campo (p. ex., tráfico de drogas) (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Ano (AAAA)</t>
+  </si>
+  <si>
+    <t>Texto ou número</t>
+  </si>
+  <si>
+    <t>O número e a ordem das colunas de origem devem coincidir com as colunas de destino.</t>
+  </si>
+  <si>
+    <t>Os tipos de fontes para os dados devem ser os indicados.</t>
   </si>
   <si>
     <r>
-      <t>Preste especial atención a los</t>
+      <t>Prestar especial atenção aos</t>
     </r>
     <r>
       <rPr>
@@ -605,12 +585,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "valores aceptados" para la "clasificación final", "sexo", "estado de vacunación" y "número de dosis de vacuna".</t>
+      <t xml:space="preserve"> "valores aceitos" para a "classificação final", "sexo", "estado de vacinação" e "número de doses de vacina".</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">No edite o modifique las </t>
+      <t xml:space="preserve">Não  editar ou modificar as </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +600,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"columnas calculadas"</t>
+      <t>"colunas calculadas"</t>
     </r>
     <r>
       <rPr>
@@ -631,7 +611,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> adicionales situadas a la derecha de la tabla de datos. </t>
+      <t xml:space="preserve"> adicionais situadas à direita da tabela de dados. </t>
     </r>
     <r>
       <rPr>
@@ -641,62 +621,81 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Contienen fórmulas basadas en las columnas de datos de casos.</t>
+      <t>Contêm fórmulas baseadas nas colunas de dados de casos.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Al pegar los datos</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, uuse la opción "pegar valores" para evitar las referencias a la hoja de cálculo externa.</t>
-    </r>
-  </si>
-  <si>
-    <t>Brote</t>
-  </si>
-  <si>
-    <t>Geocódigo Admin1</t>
-  </si>
-  <si>
-    <t>Geocódigo Admin2</t>
-  </si>
-  <si>
-    <t>Cobertura de la última campaña de seguimiento</t>
-  </si>
-  <si>
-    <t>Porcentaje de hospitales de nivel subnacional con personal capacitado para hacer triaje y aislar casos altamente sospechosos de sarampión y rubéola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobertura de SRP1 por municipio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobertura de SRP2 por municipio </t>
-  </si>
-  <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>SPA</t>
+    <t>Ao colar os dados, usar a opção "colar valores"  para evitar as referências para evitar las referencias à planilha externa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preencher a tabela de dados abaixo de acordo com os seguintes requisitos </t>
+  </si>
+  <si>
+    <t>ID do caso</t>
+  </si>
+  <si>
+    <t>Clasificação final</t>
+  </si>
+  <si>
+    <t>Data de nascimento</t>
+  </si>
+  <si>
+    <t>Presença de febre</t>
+  </si>
+  <si>
+    <t>Data de inicio do exantema</t>
+  </si>
+  <si>
+    <t>Situação vacinal</t>
+  </si>
+  <si>
+    <t>Número de doses</t>
+  </si>
+  <si>
+    <t>Data de notificação</t>
+  </si>
+  <si>
+    <t>Data de investigação</t>
+  </si>
+  <si>
+    <t>Data de obtenção de amostra</t>
+  </si>
+  <si>
+    <t>Data de recebimento no laboratorio</t>
+  </si>
+  <si>
+    <t>Data da última vacinação</t>
+  </si>
+  <si>
+    <t>História de viagem</t>
+  </si>
+  <si>
+    <t>Porcentagem de hospitais subnacionais com pessoal treinado para triagem e isolamento de casos suspeitos de sarampo e rubéola</t>
+  </si>
+  <si>
+    <t>Cobertura da última campanha de seguimento</t>
+  </si>
+  <si>
+    <t>Local de residência</t>
+  </si>
+  <si>
+    <t>Municípios</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,###;&quot;-&quot;"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,12 +858,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -993,7 +986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1060,6 +1053,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1103,10 +1109,10 @@
     <xf numFmtId="49" fontId="8" fillId="7" borderId="3" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1157,24 +1163,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1199,17 +1187,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="12" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="12" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1221,49 +1202,80 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="17" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="10" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1281,31 +1293,81 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="40% - Accent4" xfId="16" builtinId="43"/>
     <cellStyle name="60% - Accent2" xfId="17" builtinId="36"/>
-    <cellStyle name="ExternalData" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading 1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Help" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="MainHeader" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Menu" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="ExternalData" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Heading 1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Help" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="MainHeader" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Menu" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="RiskCatAdmin1" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="RiskCatAverage" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="RiskCatDataInput" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="RiskCatFormula" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="RiskCatIndHeader" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="RiskCatTableHeader" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="StatusBar" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="TableHeader" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="RiskCatAdmin1" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="RiskCatAverage" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="RiskCatDataInput" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="RiskCatFormula" xfId="4" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="RiskCatIndHeader" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="RiskCatTableHeader" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="StatusBar" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="TableHeader" xfId="7" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1526,7 +1588,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
@@ -1548,15 +1609,15 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1573,15 +1634,15 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1597,15 +1658,14 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1621,15 +1681,14 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1645,15 +1704,14 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1669,7 +1727,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
@@ -1692,13 +1749,12 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1714,15 +1770,14 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1738,14 +1793,24 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1762,14 +1827,13 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1785,13 +1849,13 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1807,14 +1871,13 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1831,13 +1894,15 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1853,11 +1918,26 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1873,13 +1953,27 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1895,7 +1989,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1903,52 +1996,8 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -2032,13 +2081,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium2 3" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="56"/>
-      <tableStyleElement type="headerRow" dxfId="55"/>
-      <tableStyleElement type="totalRow" dxfId="54"/>
-      <tableStyleElement type="firstColumn" dxfId="53"/>
-      <tableStyleElement type="lastColumn" dxfId="52"/>
-      <tableStyleElement type="firstRowStripe" dxfId="51"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="50"/>
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="totalRow" dxfId="55"/>
+      <tableStyleElement type="firstColumn" dxfId="54"/>
+      <tableStyleElement type="lastColumn" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="51"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2204,95 +2253,95 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="table_case_based_data18" displayName="table_case_based_data18" ref="A13:S15" totalsRowCount="1" headerRowDxfId="49" totalsRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="table_case_based_data18" displayName="table_case_based_data18" ref="A13:S14" totalsRowShown="0" headerRowDxfId="50" totalsRowDxfId="49">
   <autoFilter ref="A13:S14" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{4C1DC871-122F-2547-A47F-EC5462ED6F3E}" name="Admin2 geo codes" totalsRowDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Admin2 geo codes" dataDxfId="46" totalsRowDxfId="45"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Admin1" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Reporting municipality" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Case ID" totalsRowFunction="count" totalsRowDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Final classification" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Date of birth" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sex" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Place of residence" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Presence of fever" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Date of rash onset" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Vaccination status" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Number of vaccine doses" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Date of notification" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Date of investigation" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Date of blood sample collection" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Date received in lab " dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Date of last vaccination" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Travel history" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Reporting municipality" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Case ID" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Final classification" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Date of birth" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sex" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Place of residence" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Presence of fever" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Date of rash onset" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Vaccination status" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Number of vaccine doses" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Date of notification" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Date of investigation" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Date of blood sample collection" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Date received in lab " dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Date of last vaccination" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Travel history" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="tbl_final_classification" displayName="tbl_final_classification" ref="A1:A5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tbl_final_classification" displayName="tbl_final_classification" ref="A1:A5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Normal 2">
   <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Final Classification" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Final Classification" dataDxfId="11" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="tbl_sex" displayName="tbl_sex" ref="C1:C3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tbl_sex" displayName="tbl_sex" ref="C1:C3" totalsRowShown="0">
   <autoFilter ref="C1:C3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Sex"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sex"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="tbl_num_of_doses" displayName="tbl_num_of_doses" ref="E1:E8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tbl_num_of_doses" displayName="tbl_num_of_doses" ref="E1:E8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" dataCellStyle="Normal 2">
   <autoFilter ref="E1:E8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Number Of Doses" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Number Of Doses" dataDxfId="8" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="tbl_vaccination_status" displayName="tbl_vaccination_status" ref="G1:G5" totalsRowShown="0" dataDxfId="5" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tbl_vaccination_status" displayName="tbl_vaccination_status" ref="G1:G5" totalsRowShown="0" dataDxfId="7" dataCellStyle="Normal 2">
   <autoFilter ref="G1:G5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Vaccination Status" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vaccination Status" dataDxfId="6" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="tbl_Yes_No" displayName="tbl_Yes_No" ref="I1:I3" totalsRowShown="0" dataDxfId="3" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tbl_Yes_No" displayName="tbl_Yes_No" ref="I1:I3" totalsRowShown="0" dataDxfId="5" dataCellStyle="Normal 2">
   <autoFilter ref="I1:I3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Yes No" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Yes No" dataDxfId="4" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="tbl_Travel_History" displayName="tbl_Travel_History" ref="K1:K4" totalsRowShown="0" dataDxfId="1" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tbl_Travel_History" displayName="tbl_Travel_History" ref="K1:K4" totalsRowShown="0" dataDxfId="3" dataCellStyle="Normal 2">
   <autoFilter ref="K1:K4" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Travel History" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Travel History" dataDxfId="2" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2591,85 +2640,85 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="70.5" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30.9" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B8" xr:uid="{BC8AE798-00C5-0E4B-8395-6E37B36DDBB6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT("tbl_Yes_No[Yes No]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{4991E7D1-54A9-1E4F-9E31-DE57C7D089FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"SPA,ENG,FRA,POR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2681,91 +2730,133 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="13.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="30"/>
+    <row r="1" spans="1:6" ht="45" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <autoFilter ref="C1:F1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C1:F12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -2774,212 +2865,276 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="27" customWidth="1"/>
-    <col min="10" max="11" width="8.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="27" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="10.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="22" customWidth="1"/>
+    <col min="10" max="11" width="8.109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="22" customWidth="1"/>
+    <col min="13" max="14" width="7.44140625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="44">
-        <f>'1-General'!$B$3-5</f>
-        <v>2018</v>
-      </c>
-      <c r="F2" s="44">
-        <f>'1-General'!$B$3-4</f>
+    <row r="1" spans="1:15" ht="60.9" customHeight="1">
+      <c r="A1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="34">
+        <f>'1-Geral'!$B$3-5</f>
         <v>2019</v>
       </c>
-      <c r="G2" s="44">
-        <f>'1-General'!$B$3-3</f>
+      <c r="F2" s="34">
+        <f>'1-Geral'!$B$3-4</f>
         <v>2020</v>
       </c>
-      <c r="H2" s="44">
-        <f>'1-General'!$B$3-2</f>
+      <c r="G2" s="34">
+        <f>'1-Geral'!$B$3-3</f>
         <v>2021</v>
       </c>
-      <c r="I2" s="44">
-        <f>'1-General'!$B$3-1</f>
+      <c r="H2" s="34">
+        <f>'1-Geral'!$B$3-2</f>
         <v>2022</v>
       </c>
-      <c r="J2" s="44">
-        <f>'1-General'!$B$3-5</f>
-        <v>2018</v>
-      </c>
-      <c r="K2" s="44">
-        <f>'1-General'!$B$3-4</f>
+      <c r="I2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="J2" s="34">
+        <f>'1-Geral'!$B$3-5</f>
         <v>2019</v>
       </c>
-      <c r="L2" s="44">
-        <f>'1-General'!$B$3-3</f>
+      <c r="K2" s="34">
+        <f>'1-Geral'!$B$3-4</f>
         <v>2020</v>
       </c>
-      <c r="M2" s="44">
-        <f>'1-General'!$B$3-2</f>
+      <c r="L2" s="34">
+        <f>'1-Geral'!$B$3-3</f>
         <v>2021</v>
       </c>
-      <c r="N2" s="44">
-        <f>'1-General'!$B$3-1</f>
+      <c r="M2" s="34">
+        <f>'1-Geral'!$B$3-2</f>
         <v>2022</v>
       </c>
-      <c r="O2" s="50"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+      <c r="N2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="D10" s="32"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2993,185 +3148,271 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="17" style="27" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="30" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="1" width="9.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="30" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="F2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="G2" s="45">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="H2" s="46">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="I2" s="46">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+    <row r="1" spans="1:9" ht="57.9" customHeight="1">
+      <c r="A1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="F2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="G2" s="35">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="H2" s="36">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="I2" s="36">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="41">
-        <f t="shared" ref="H3:H8" si="0">IF(ISBLANK(F3),0,(F3-G3)/F3 * 100)</f>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="32">
+        <f>IF(ISBLANK(F3),0,(F3-G3)/F3 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="41">
-        <f t="shared" ref="I3:I8" si="1">IF(ISBLANK(E3),0,(E3-F3)/E3 * 100)</f>
+      <c r="I3" s="32">
+        <f>IF(ISBLANK(E3),0,(E3-F3)/E3 * 100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="41">
-        <f>IF(ISBLANK(F4),0,(F4-G4)/F4 * 100)</f>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="32">
+        <f t="shared" ref="H4:H13" si="0">IF(ISBLANK(F4),0,(F4-G4)/F4 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="32">
+        <f t="shared" ref="I4:I13" si="1">IF(ISBLANK(E4),0,(E4-F4)/E4 * 100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="41">
+    <row r="6" spans="1:9">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I6" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="41">
+    <row r="7" spans="1:9">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I7" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="41">
+    <row r="8" spans="1:9">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I8" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="41">
+    <row r="9" spans="1:9">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I9" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3192,192 +3433,218 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="20" style="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="27" customWidth="1"/>
-    <col min="13" max="16" width="20.83203125" style="27" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="12.5546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="20" style="22" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="F2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="G2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="H2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="I2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="J2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="K2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-      <c r="L2" s="44">
-        <f>'1-General'!$B$3-1</f>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+    <row r="1" spans="1:12" ht="112.5" customHeight="1">
+      <c r="A1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29.1" customHeight="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="F2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="G2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="H2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="I2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="J2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="K2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+      <c r="L2" s="34">
+        <f>'1-Geral'!$B$3-1</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <autoFilter ref="C1:L58" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="4">
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
@@ -3393,7 +3660,7 @@
           <x14:formula1>
             <xm:f>_ListValues!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:L8</xm:sqref>
+          <xm:sqref>E3:L10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3403,223 +3670,223 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="35.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="23.4">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="F1" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="F2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="6"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.6">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17" t="str">
-        <f>_xlfn.CONCAT("Casos  - ", '1-General'!$B$3-1)</f>
-        <v>Casos  - 2022</v>
+        <f>CONCATENATE("Casos  - ", '1-Geral'!$B$3-1)</f>
+        <v>Casos  - 2023</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="F3" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="6"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
+      <c r="F4" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
       <c r="O4" s="6"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="F5" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="6"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="F6" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3640,125 +3907,125 @@
       <c r="R9" s="14"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="24">
       <c r="A10" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="P11" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3779,623 +4046,620 @@
       <c r="R12" s="11"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:19">
+      <c r="A13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36" t="s">
+      <c r="H13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="J13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="36" t="s">
+      <c r="K13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="L13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="37" t="s">
+      <c r="S13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19">
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="38"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="46"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="39"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62">
         <f>SUBTOTAL(103,table_case_based_data18[Reporting municipality])</f>
         <v>0</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="63">
         <f>SUBTOTAL(103,table_case_based_data18[Case ID])</f>
         <v>0</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="19"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="26"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="26"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="26"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="26"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="26"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="26"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="26"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="26"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="26"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="26"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="26"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="26"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="26"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="26"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="26"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="26"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="28"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="26"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="28"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="26"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="28"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="26"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="28"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="26"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="26"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="26"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="28"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="26"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="28"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="26"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="28"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="26"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="28"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="26"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="28"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="26"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="28"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="26"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="G49" s="26"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="28"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="26"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="G50" s="26"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="28"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="26"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="28"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="26"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="28"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="26"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="28"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="26"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="28"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="26"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="G55" s="26"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="28"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="26"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="62"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="21"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="21"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="21"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="21"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="21"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="21"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="21"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="21"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="21"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="21"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="21"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="21"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="21"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="21"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="21"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="21"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="21"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="21"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="21"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="21"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="G44" s="21"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="21"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="23"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="21"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="21"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="G47" s="21"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="21"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="21"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="23"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="21"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="G50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="21"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="G51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="21"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="21"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="G53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="21"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="G54" s="21"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4408,41 +4672,41 @@
     <mergeCell ref="F4:N4"/>
     <mergeCell ref="F5:N5"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid date" sqref="N16:R55 N14:R14" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14 A16:B54" xr:uid="{00000000-0002-0000-0500-000003000000}">
+      <formula1>1980</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:I54" xr:uid="{00000000-0002-0000-0500-000009000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F55 F14" xr:uid="{00000000-0002-0000-0500-000001000000}">
-      <formula1>INDIRECT("tbl_final_classification[Final Classification]")</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H55 H14" xr:uid="{00000000-0002-0000-0500-000002000000}">
-      <formula1>INDIRECT("tbl_sex[Sex]")</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:B55 A14:B14" xr:uid="{00000000-0002-0000-0500-000003000000}">
-      <formula1>1980</formula1>
-      <formula2>2100</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16:L55 L14" xr:uid="{00000000-0002-0000-0500-000004000000}">
-      <formula1>INDIRECT("tbl_vaccination_status[Vaccination Status]")</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16:M55 M14" xr:uid="{00000000-0002-0000-0500-000005000000}">
-      <formula1>INDIRECT("tbl_num_of_doses[Number Of Doses]")</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J55 J14" xr:uid="{00000000-0002-0000-0500-000006000000}">
-      <formula1>INDIRECT("tbl_Yes_No[Yes No]")</formula1>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a whole number" sqref="G16:G55 G14" xr:uid="{00000000-0002-0000-0500-000007000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid date" sqref="N14:R14 N16:R54" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16:S55 S14" xr:uid="{00000000-0002-0000-0500-000008000000}">
-      <formula1>INDIRECT("tbl_Travel_History[Travel History]")</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F16:F54" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>INDIRECT("tbl_final_classification[Final Classification]")</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:I55" xr:uid="{00000000-0002-0000-0500-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 H16:H54" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>INDIRECT("tbl_sex[Sex]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L16:L54" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>INDIRECT("tbl_vaccination_status[Vaccination Status]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14 M16:M54" xr:uid="{00000000-0002-0000-0500-000005000000}">
+      <formula1>INDIRECT("tbl_num_of_doses[Number Of Doses]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14 J16:J54" xr:uid="{00000000-0002-0000-0500-000006000000}">
+      <formula1>INDIRECT("tbl_Yes_No[Yes No]")</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a whole number" sqref="G14 G16:G54" xr:uid="{00000000-0002-0000-0500-000007000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14 S16:S54" xr:uid="{00000000-0002-0000-0500-000008000000}">
+      <formula1>INDIRECT("tbl_Travel_History[Travel History]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,87 +4720,114 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F7"/>
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.33203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="24" style="27" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="10.44140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="22" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
+    <row r="1" spans="1:6" ht="91.65" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="47"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -4549,7 +4840,7 @@
           <x14:formula1>
             <xm:f>_ListValues!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7</xm:sqref>
+          <xm:sqref>E2:E10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4558,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="SheetListValues">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -4566,121 +4857,121 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="6"/>
-    <col min="11" max="11" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="8">
         <v>2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" s="8">
         <v>3</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="E6" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="E7" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4697,12 +4988,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C69FE739999C447A76F1EF8B3FD66E4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbd048430c8551c34c2c3c8571f1b260">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4655c133-e14e-4d88-8fbc-c3b347145ec5" xmlns:ns4="64ced670-a384-4657-ba0f-fc07d30f5a44" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5457dbb80d17598a17de4d439e456cf2" ns3:_="" ns4:_="">
     <xsd:import namespace="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
@@ -4925,7 +5210,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4934,24 +5219,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
-    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C9E008-75C3-4280-8CCC-7498B59407BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4970,10 +5244,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>